--- a/game/Reporter/reporter.xlsx
+++ b/game/Reporter/reporter.xlsx
@@ -594,16 +594,8 @@
       <c r="H5" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="6" s="8">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>存在</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>存在</t>
-        </is>
-      </c>
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
       <c r="C6" s="7" t="n"/>
       <c r="D6" s="7" t="n"/>
       <c r="E6" s="7" t="n"/>
@@ -672,7 +664,11 @@
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>存在</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>

--- a/game/Reporter/reporter.xlsx
+++ b/game/Reporter/reporter.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="G5" sqref="G5:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -590,8 +590,6 @@
       </c>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="6" s="8">
       <c r="A6" s="7" t="n"/>
@@ -600,8 +598,6 @@
       <c r="D6" s="7" t="n"/>
       <c r="E6" s="7" t="n"/>
       <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n"/>
@@ -610,8 +606,6 @@
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -624,8 +618,6 @@
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="n"/>
       <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -664,14 +656,12 @@
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>存在</t>
         </is>
       </c>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
@@ -680,8 +670,6 @@
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
       <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -694,8 +682,6 @@
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
       <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -736,8 +722,6 @@
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
@@ -746,8 +730,6 @@
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
       <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -760,8 +742,6 @@
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
       <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -802,8 +782,6 @@
       <c r="D18" s="7" t="n"/>
       <c r="E18" s="7" t="n"/>
       <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
@@ -812,8 +790,6 @@
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
       <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
@@ -826,8 +802,6 @@
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
       <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -868,8 +842,6 @@
       <c r="D22" s="7" t="n"/>
       <c r="E22" s="7" t="n"/>
       <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
@@ -878,8 +850,6 @@
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="4" t="n"/>
       <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
@@ -892,8 +862,6 @@
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
       <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -934,8 +902,6 @@
       <c r="D26" s="7" t="n"/>
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/game/Reporter/reporter.xlsx
+++ b/game/Reporter/reporter.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -592,7 +592,11 @@
       <c r="F5" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="6" s="8">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>存在</t>
+        </is>
+      </c>
       <c r="B6" s="7" t="n"/>
       <c r="C6" s="7" t="n"/>
       <c r="D6" s="7" t="n"/>
@@ -657,11 +661,7 @@
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>存在</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
